--- a/Code/Results/Cases/Case_0_176/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_176/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.246344149382029</v>
+        <v>4.914449318578265</v>
       </c>
       <c r="D2">
-        <v>4.74514801719899</v>
+        <v>7.100104438707438</v>
       </c>
       <c r="E2">
-        <v>8.338768488047949</v>
+        <v>8.165091212297671</v>
       </c>
       <c r="F2">
-        <v>40.92099317525838</v>
+        <v>38.9514190627079</v>
       </c>
       <c r="G2">
-        <v>2.052201541754785</v>
+        <v>3.682017807928372</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>25.51637501380584</v>
+        <v>19.03460693263725</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>20.81782240578349</v>
+        <v>18.00567071725736</v>
       </c>
       <c r="N2">
-        <v>13.19902435064621</v>
+        <v>19.65768971935569</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.715309952455948</v>
+        <v>4.752255673893469</v>
       </c>
       <c r="D3">
-        <v>4.779917610444365</v>
+        <v>7.121964693118553</v>
       </c>
       <c r="E3">
-        <v>7.868804565193871</v>
+        <v>8.081535132564687</v>
       </c>
       <c r="F3">
-        <v>38.72137597332218</v>
+        <v>38.52403263842844</v>
       </c>
       <c r="G3">
-        <v>2.066574861739994</v>
+        <v>3.686761693892341</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>23.63467689165086</v>
+        <v>18.55268199265469</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.29301639691096</v>
+        <v>17.73178154158508</v>
       </c>
       <c r="N3">
-        <v>13.41330198063295</v>
+        <v>19.7148672339262</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.374548662431212</v>
+        <v>4.651601371514226</v>
       </c>
       <c r="D4">
-        <v>4.806526327355128</v>
+        <v>7.136610636595108</v>
       </c>
       <c r="E4">
-        <v>7.578135265183257</v>
+        <v>8.032426641897647</v>
       </c>
       <c r="F4">
-        <v>37.36823413441656</v>
+        <v>38.27211468291809</v>
       </c>
       <c r="G4">
-        <v>2.075524731168305</v>
+        <v>3.68981977575885</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>22.42717112917855</v>
+        <v>18.2570447793237</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.31498851325904</v>
+        <v>17.56744551242554</v>
       </c>
       <c r="N4">
-        <v>13.55004604432019</v>
+        <v>19.75195348333597</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.231880631051959</v>
+        <v>4.610388031975169</v>
       </c>
       <c r="D5">
-        <v>4.818564175406212</v>
+        <v>7.142884963468027</v>
       </c>
       <c r="E5">
-        <v>7.459194589730298</v>
+        <v>8.012984279516331</v>
       </c>
       <c r="F5">
-        <v>36.81638447286373</v>
+        <v>38.1721937351088</v>
       </c>
       <c r="G5">
-        <v>2.079208814091531</v>
+        <v>3.691102674434596</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>21.92162348453159</v>
+        <v>18.13683585091227</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.9056041141984</v>
+        <v>17.50152577365778</v>
       </c>
       <c r="N5">
-        <v>13.6070138742625</v>
+        <v>19.76756345983696</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.207957931356705</v>
+        <v>4.603534966160645</v>
       </c>
       <c r="D6">
-        <v>4.820631746130174</v>
+        <v>7.143945241846358</v>
       </c>
       <c r="E6">
-        <v>7.439416806564074</v>
+        <v>8.009790792312213</v>
       </c>
       <c r="F6">
-        <v>36.72473330373569</v>
+        <v>38.1557700034562</v>
       </c>
       <c r="G6">
-        <v>2.079822937036844</v>
+        <v>3.691317920518565</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>21.83685348385731</v>
+        <v>18.11689721293324</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.83696318587379</v>
+        <v>17.49064561056381</v>
       </c>
       <c r="N6">
-        <v>13.61654696709585</v>
+        <v>19.7701854866089</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.372640133381753</v>
+        <v>4.651046247981508</v>
       </c>
       <c r="D7">
-        <v>4.806683995288345</v>
+        <v>7.13669401766916</v>
       </c>
       <c r="E7">
-        <v>7.576533097119601</v>
+        <v>8.032162106100587</v>
       </c>
       <c r="F7">
-        <v>37.36079305629754</v>
+        <v>38.27075590539871</v>
       </c>
       <c r="G7">
-        <v>2.075574259452564</v>
+        <v>3.689836928541129</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>22.42040817514092</v>
+        <v>18.25542225727295</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.30951166688367</v>
+        <v>17.56655214003683</v>
       </c>
       <c r="N7">
-        <v>13.55080936566986</v>
+        <v>19.75216199324771</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.066227492366489</v>
+        <v>4.858788218845021</v>
       </c>
       <c r="D8">
-        <v>4.755962750386418</v>
+        <v>7.107386846320933</v>
       </c>
       <c r="E8">
-        <v>8.177175175063365</v>
+        <v>8.135836487348143</v>
       </c>
       <c r="F8">
-        <v>40.16317443824967</v>
+        <v>38.80193772214606</v>
       </c>
       <c r="G8">
-        <v>2.057135176954398</v>
+        <v>3.683623438622588</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>24.87815143047032</v>
+        <v>18.86850100915665</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>20.30053973297852</v>
+        <v>17.91048960199604</v>
       </c>
       <c r="N8">
-        <v>13.27179383120482</v>
+        <v>19.67699340485789</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.315126809089397</v>
+        <v>5.254787083759568</v>
       </c>
       <c r="D9">
-        <v>4.704921331354052</v>
+        <v>7.059702728651099</v>
       </c>
       <c r="E9">
-        <v>9.435114296179298</v>
+        <v>8.355719762121163</v>
       </c>
       <c r="F9">
-        <v>45.63834867630323</v>
+        <v>39.9222957166028</v>
       </c>
       <c r="G9">
-        <v>2.021674319099748</v>
+        <v>3.67258431125447</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>29.30309001735221</v>
+        <v>20.0645012490568</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>23.88968654174014</v>
+        <v>18.61155991818817</v>
       </c>
       <c r="N9">
-        <v>12.76911772678454</v>
+        <v>19.54531813316702</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.173618700649364</v>
+        <v>5.535263364064002</v>
       </c>
       <c r="D10">
-        <v>4.707872842396306</v>
+        <v>7.030744660616292</v>
       </c>
       <c r="E10">
-        <v>10.45171340434968</v>
+        <v>8.526175168160142</v>
       </c>
       <c r="F10">
-        <v>49.66445618843568</v>
+        <v>40.78690182654016</v>
       </c>
       <c r="G10">
-        <v>1.995570443064714</v>
+        <v>3.665161653216535</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>32.34426569846622</v>
+        <v>20.92883539400312</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>26.36074245546615</v>
+        <v>19.13771634625898</v>
       </c>
       <c r="N10">
-        <v>12.43321642984477</v>
+        <v>19.45820366925825</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.553699706880424</v>
+        <v>5.659952239134157</v>
       </c>
       <c r="D11">
-        <v>4.720985347031157</v>
+        <v>7.018914202737861</v>
       </c>
       <c r="E11">
-        <v>10.90491938528904</v>
+        <v>8.605381955070314</v>
       </c>
       <c r="F11">
-        <v>51.53630408568364</v>
+        <v>41.18778077258131</v>
       </c>
       <c r="G11">
-        <v>1.983551870293038</v>
+        <v>3.661931973608348</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>33.69062558569211</v>
+        <v>21.31690014385144</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>27.45601311598353</v>
+        <v>19.37840122898501</v>
       </c>
       <c r="N11">
-        <v>12.28967639850447</v>
+        <v>19.42067266508785</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.696362791073815</v>
+        <v>5.706705846388811</v>
       </c>
       <c r="D12">
-        <v>4.727945113724359</v>
+        <v>7.01462944393506</v>
       </c>
       <c r="E12">
-        <v>11.07555166943743</v>
+        <v>8.635591454214916</v>
       </c>
       <c r="F12">
-        <v>52.28411883618838</v>
+        <v>41.34054563946083</v>
       </c>
       <c r="G12">
-        <v>1.978966387596543</v>
+        <v>3.660729929125624</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>34.19598339408329</v>
+        <v>21.46296039725792</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>27.86734693749532</v>
+        <v>19.4696457235692</v>
       </c>
       <c r="N12">
-        <v>12.23688416424397</v>
+        <v>19.4067632583013</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.665689757058779</v>
+        <v>5.69665790976322</v>
       </c>
       <c r="D13">
-        <v>4.726352149597614</v>
+        <v>7.015543528961217</v>
       </c>
       <c r="E13">
-        <v>11.03884066642243</v>
+        <v>8.629076092329582</v>
       </c>
       <c r="F13">
-        <v>52.12302879295135</v>
+        <v>41.30760429480942</v>
       </c>
       <c r="G13">
-        <v>1.979955725980908</v>
+        <v>3.660987881073293</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>34.08732940778986</v>
+        <v>21.43154568543418</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>27.77889798918068</v>
+        <v>19.44999143415435</v>
       </c>
       <c r="N13">
-        <v>12.24818003534664</v>
+        <v>19.40974541379369</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.565460525004967</v>
+        <v>5.663808219345851</v>
       </c>
       <c r="D14">
-        <v>4.721516051194487</v>
+        <v>7.018557769233107</v>
       </c>
       <c r="E14">
-        <v>10.91897498364243</v>
+        <v>8.607863125546986</v>
       </c>
       <c r="F14">
-        <v>51.59781383290826</v>
+        <v>41.20033030655968</v>
       </c>
       <c r="G14">
-        <v>1.98317539535396</v>
+        <v>3.661832661445105</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>33.73228597752905</v>
+        <v>21.32893531612044</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>27.48991772896331</v>
+        <v>19.38590642055254</v>
       </c>
       <c r="N14">
-        <v>12.28530027307795</v>
+        <v>19.41952225530056</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.503910242081403</v>
+        <v>5.64362520887569</v>
       </c>
       <c r="D15">
-        <v>4.718823344649833</v>
+        <v>7.020429559366187</v>
       </c>
       <c r="E15">
-        <v>10.84543656712761</v>
+        <v>8.594896935022948</v>
       </c>
       <c r="F15">
-        <v>51.27618024071497</v>
+        <v>41.13474321913709</v>
       </c>
       <c r="G15">
-        <v>1.985142616714044</v>
+        <v>3.662352839263013</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>33.51425637294967</v>
+        <v>21.26596303334438</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>27.31248722157369</v>
+        <v>19.34666321662752</v>
       </c>
       <c r="N15">
-        <v>12.30824898811056</v>
+        <v>19.42555031653546</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.148588544748984</v>
+        <v>5.527052208457688</v>
       </c>
       <c r="D16">
-        <v>4.707277433616655</v>
+        <v>7.031545006220353</v>
       </c>
       <c r="E16">
-        <v>10.42193707883517</v>
+        <v>8.521030298805336</v>
       </c>
       <c r="F16">
-        <v>49.54442781104488</v>
+        <v>40.76084482443781</v>
       </c>
       <c r="G16">
-        <v>1.9963518858592</v>
+        <v>3.665375662987359</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>32.25560102858839</v>
+        <v>20.90335783808854</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>26.28864275283993</v>
+        <v>19.12200616119904</v>
       </c>
       <c r="N16">
-        <v>12.44280191859175</v>
+        <v>19.46069871514459</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.928089356273361</v>
+        <v>5.454760883565259</v>
       </c>
       <c r="D17">
-        <v>4.703408543516079</v>
+        <v>7.038709355267242</v>
       </c>
       <c r="E17">
-        <v>10.15998936166262</v>
+        <v>8.476125223876917</v>
       </c>
       <c r="F17">
-        <v>48.49367208808874</v>
+        <v>40.53331772425025</v>
       </c>
       <c r="G17">
-        <v>2.003182684134972</v>
+        <v>3.667267582804296</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>31.47451721317284</v>
+        <v>20.67948487301068</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>25.6536388650314</v>
+        <v>18.98446355929693</v>
       </c>
       <c r="N17">
-        <v>12.52786459881369</v>
+        <v>19.48279918599932</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.800263880070096</v>
+        <v>5.41291017530197</v>
       </c>
       <c r="D18">
-        <v>4.702270340768001</v>
+        <v>7.042956354121069</v>
       </c>
       <c r="E18">
-        <v>10.00842942139529</v>
+        <v>8.450455258883679</v>
       </c>
       <c r="F18">
-        <v>47.89009638244303</v>
+        <v>40.40316993129355</v>
       </c>
       <c r="G18">
-        <v>2.007098998394024</v>
+        <v>3.668369604027085</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>31.02170838531493</v>
+        <v>20.55024512924079</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>25.28563801500064</v>
+        <v>18.90548344596778</v>
       </c>
       <c r="N18">
-        <v>12.57764533231036</v>
+        <v>19.49570817742915</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.756806030179327</v>
+        <v>5.398695251903488</v>
       </c>
       <c r="D19">
-        <v>4.702063262869109</v>
+        <v>7.044415935957569</v>
       </c>
       <c r="E19">
-        <v>9.956950751351783</v>
+        <v>8.441791753116735</v>
       </c>
       <c r="F19">
-        <v>47.68584433239475</v>
+        <v>40.35923160819848</v>
       </c>
       <c r="G19">
-        <v>2.008423208030662</v>
+        <v>3.668745111282096</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>30.86776186954457</v>
+        <v>20.50641027863199</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>25.16054469576251</v>
+        <v>18.87876735701346</v>
       </c>
       <c r="N19">
-        <v>12.59464097240982</v>
+        <v>19.50011280835022</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.951663800408737</v>
+        <v>5.462484780609214</v>
       </c>
       <c r="D20">
-        <v>4.703705854709154</v>
+        <v>7.037933616111941</v>
       </c>
       <c r="E20">
-        <v>10.18796444203608</v>
+        <v>8.48088924033487</v>
       </c>
       <c r="F20">
-        <v>48.60543816205215</v>
+        <v>40.55746479719154</v>
       </c>
       <c r="G20">
-        <v>2.002456926413708</v>
+        <v>3.667064753605466</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>31.55802665607178</v>
+        <v>20.70336674025631</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>25.72151729516816</v>
+        <v>18.99909232706831</v>
       </c>
       <c r="N20">
-        <v>12.51871956405649</v>
+        <v>19.48042611671392</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.594932507079527</v>
+        <v>5.673469887919447</v>
       </c>
       <c r="D21">
-        <v>4.722879745982598</v>
+        <v>7.017667099795053</v>
       </c>
       <c r="E21">
-        <v>10.95420616083716</v>
+        <v>8.614088228450962</v>
       </c>
       <c r="F21">
-        <v>51.75206370924306</v>
+        <v>41.23181422021906</v>
       </c>
       <c r="G21">
-        <v>1.982230753849051</v>
+        <v>3.661583961281129</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>33.83668479212459</v>
+        <v>21.35909983303815</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>27.57488463746564</v>
+        <v>19.40472766502171</v>
       </c>
       <c r="N21">
-        <v>12.27435258061281</v>
+        <v>19.41664233371596</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.00811505344077</v>
+        <v>5.808642144333948</v>
       </c>
       <c r="D22">
-        <v>4.747214355392807</v>
+        <v>7.005560410781427</v>
       </c>
       <c r="E22">
-        <v>11.44944736924768</v>
+        <v>8.702386967215521</v>
       </c>
       <c r="F22">
-        <v>53.93076248672776</v>
+        <v>41.67808111918557</v>
       </c>
       <c r="G22">
-        <v>1.968803347343304</v>
+        <v>3.658124071704139</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>35.30033316099561</v>
+        <v>21.78240024073411</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>28.76666782088478</v>
+        <v>19.67039079067134</v>
       </c>
       <c r="N22">
-        <v>12.12391207854657</v>
+        <v>19.37672127781429</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.788162680159139</v>
+        <v>5.736760875965902</v>
       </c>
       <c r="D23">
-        <v>4.733032966873068</v>
+        <v>7.011917089186394</v>
       </c>
       <c r="E23">
-        <v>11.18550324188944</v>
+        <v>8.655154263250592</v>
       </c>
       <c r="F23">
-        <v>52.76723354363468</v>
+        <v>41.43943522971099</v>
       </c>
       <c r="G23">
-        <v>1.975994135232667</v>
+        <v>3.659959559176659</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>34.52117055124551</v>
+        <v>21.557005932813</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>28.13209781541548</v>
+        <v>19.52857929221392</v>
       </c>
       <c r="N23">
-        <v>12.20326353213084</v>
+        <v>19.39786598608197</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.94100910561037</v>
+        <v>5.458993704808391</v>
       </c>
       <c r="D24">
-        <v>4.703568079587216</v>
+        <v>7.038283928879813</v>
       </c>
       <c r="E24">
-        <v>10.1753199318447</v>
+        <v>8.4787349701783</v>
       </c>
       <c r="F24">
-        <v>48.55490718488952</v>
+        <v>40.54654583835682</v>
       </c>
       <c r="G24">
-        <v>2.002785074134871</v>
+        <v>3.667156408035009</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>31.52028379000747</v>
+        <v>20.69257139388833</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>25.69083863180905</v>
+        <v>18.99247835856621</v>
       </c>
       <c r="N24">
-        <v>12.52285131901546</v>
+        <v>19.48149834869705</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.988345524974029</v>
+        <v>5.149262828184354</v>
       </c>
       <c r="D25">
-        <v>4.712518277245513</v>
+        <v>7.071543639829549</v>
       </c>
       <c r="E25">
-        <v>9.050577174006897</v>
+        <v>8.294580961918214</v>
       </c>
       <c r="F25">
-        <v>44.15852828775132</v>
+        <v>39.61143775489654</v>
       </c>
       <c r="G25">
-        <v>2.031237335025514</v>
+        <v>3.675449142938704</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>28.14537653445241</v>
+        <v>19.7427497506019</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>22.94998868438387</v>
+        <v>18.41958420199095</v>
       </c>
       <c r="N25">
-        <v>12.89979185467816</v>
+        <v>19.57925205876161</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_176/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_176/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.914449318578265</v>
+        <v>7.246344149382007</v>
       </c>
       <c r="D2">
-        <v>7.100104438707438</v>
+        <v>4.745148017198925</v>
       </c>
       <c r="E2">
-        <v>8.165091212297671</v>
+        <v>8.338768488047961</v>
       </c>
       <c r="F2">
-        <v>38.9514190627079</v>
+        <v>40.92099317525842</v>
       </c>
       <c r="G2">
-        <v>3.682017807928372</v>
+        <v>2.052201541754654</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>19.03460693263725</v>
+        <v>25.51637501380586</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.00567071725736</v>
+        <v>20.81782240578351</v>
       </c>
       <c r="N2">
-        <v>19.65768971935569</v>
+        <v>13.19902435064622</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.752255673893469</v>
+        <v>6.715309952455964</v>
       </c>
       <c r="D3">
-        <v>7.121964693118553</v>
+        <v>4.779917610444318</v>
       </c>
       <c r="E3">
-        <v>8.081535132564687</v>
+        <v>7.868804565193925</v>
       </c>
       <c r="F3">
-        <v>38.52403263842844</v>
+        <v>38.72137597332198</v>
       </c>
       <c r="G3">
-        <v>3.686761693892341</v>
+        <v>2.066574861739994</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>18.55268199265469</v>
+        <v>23.63467689165093</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.73178154158508</v>
+        <v>19.29301639691102</v>
       </c>
       <c r="N3">
-        <v>19.7148672339262</v>
+        <v>13.41330198063285</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.651601371514226</v>
+        <v>6.374548662431212</v>
       </c>
       <c r="D4">
-        <v>7.136610636595108</v>
+        <v>4.806526327355109</v>
       </c>
       <c r="E4">
-        <v>8.032426641897647</v>
+        <v>7.578135265183299</v>
       </c>
       <c r="F4">
-        <v>38.27211468291809</v>
+        <v>37.3682341344165</v>
       </c>
       <c r="G4">
-        <v>3.68981977575885</v>
+        <v>2.075524731168434</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>18.2570447793237</v>
+        <v>22.42717112917857</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.56744551242554</v>
+        <v>18.31498851325905</v>
       </c>
       <c r="N4">
-        <v>19.75195348333597</v>
+        <v>13.55004604432019</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.610388031975169</v>
+        <v>6.231880631051863</v>
       </c>
       <c r="D5">
-        <v>7.142884963468027</v>
+        <v>4.8185641754063</v>
       </c>
       <c r="E5">
-        <v>8.012984279516331</v>
+        <v>7.45919458973026</v>
       </c>
       <c r="F5">
-        <v>38.1721937351088</v>
+        <v>36.81638447286381</v>
       </c>
       <c r="G5">
-        <v>3.691102674434596</v>
+        <v>2.07920881409153</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>18.13683585091227</v>
+        <v>21.92162348453152</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.50152577365778</v>
+        <v>17.90560411419834</v>
       </c>
       <c r="N5">
-        <v>19.76756345983696</v>
+        <v>13.60701387426262</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.603534966160645</v>
+        <v>6.207957931356624</v>
       </c>
       <c r="D6">
-        <v>7.143945241846358</v>
+        <v>4.82063174613022</v>
       </c>
       <c r="E6">
-        <v>8.009790792312213</v>
+        <v>7.43941680656406</v>
       </c>
       <c r="F6">
-        <v>38.1557700034562</v>
+        <v>36.72473330373579</v>
       </c>
       <c r="G6">
-        <v>3.691317920518565</v>
+        <v>2.07982293703685</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>18.11689721293324</v>
+        <v>21.83685348385722</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.49064561056381</v>
+        <v>17.83696318587374</v>
       </c>
       <c r="N6">
-        <v>19.7701854866089</v>
+        <v>13.61654696709585</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.651046247981508</v>
+        <v>6.372640133381704</v>
       </c>
       <c r="D7">
-        <v>7.13669401766916</v>
+        <v>4.806683995288403</v>
       </c>
       <c r="E7">
-        <v>8.032162106100587</v>
+        <v>7.576533097119602</v>
       </c>
       <c r="F7">
-        <v>38.27075590539871</v>
+        <v>37.36079305629753</v>
       </c>
       <c r="G7">
-        <v>3.689836928541129</v>
+        <v>2.075574259452697</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>18.25542225727295</v>
+        <v>22.42040817514099</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.56655214003683</v>
+        <v>18.30951166688373</v>
       </c>
       <c r="N7">
-        <v>19.75216199324771</v>
+        <v>13.55080936566978</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.858788218845021</v>
+        <v>7.066227492366456</v>
       </c>
       <c r="D8">
-        <v>7.107386846320933</v>
+        <v>4.755962750386407</v>
       </c>
       <c r="E8">
-        <v>8.135836487348143</v>
+        <v>8.177175175063327</v>
       </c>
       <c r="F8">
-        <v>38.80193772214606</v>
+        <v>40.1631744382497</v>
       </c>
       <c r="G8">
-        <v>3.683623438622588</v>
+        <v>2.057135176954663</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>18.86850100915665</v>
+        <v>24.87815143047025</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.91048960199604</v>
+        <v>20.3005397329785</v>
       </c>
       <c r="N8">
-        <v>19.67699340485789</v>
+        <v>13.27179383120488</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.254787083759568</v>
+        <v>8.315126809089389</v>
       </c>
       <c r="D9">
-        <v>7.059702728651099</v>
+        <v>4.704921331353988</v>
       </c>
       <c r="E9">
-        <v>8.355719762121163</v>
+        <v>9.435114296179229</v>
       </c>
       <c r="F9">
-        <v>39.9222957166028</v>
+        <v>45.63834867630338</v>
       </c>
       <c r="G9">
-        <v>3.67258431125447</v>
+        <v>2.02167431909934</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>20.0645012490568</v>
+        <v>29.30309001735248</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.61155991818817</v>
+        <v>23.88968654174031</v>
       </c>
       <c r="N9">
-        <v>19.54531813316702</v>
+        <v>12.7691177267844</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.535263364064002</v>
+        <v>9.173618700649421</v>
       </c>
       <c r="D10">
-        <v>7.030744660616292</v>
+        <v>4.707872842396363</v>
       </c>
       <c r="E10">
-        <v>8.526175168160142</v>
+        <v>10.45171340434972</v>
       </c>
       <c r="F10">
-        <v>40.78690182654016</v>
+        <v>49.66445618843559</v>
       </c>
       <c r="G10">
-        <v>3.665161653216535</v>
+        <v>1.995570443064839</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>20.92883539400312</v>
+        <v>32.34426569846616</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.13771634625898</v>
+        <v>26.36074245546612</v>
       </c>
       <c r="N10">
-        <v>19.45820366925825</v>
+        <v>12.43321642984481</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.659952239134157</v>
+        <v>9.553699706880337</v>
       </c>
       <c r="D11">
-        <v>7.018914202737861</v>
+        <v>4.720985347030997</v>
       </c>
       <c r="E11">
-        <v>8.605381955070314</v>
+        <v>10.90491938528912</v>
       </c>
       <c r="F11">
-        <v>41.18778077258131</v>
+        <v>51.53630408568357</v>
       </c>
       <c r="G11">
-        <v>3.661931973608348</v>
+        <v>1.983551870292914</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>21.31690014385144</v>
+        <v>33.6906255856921</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.37840122898501</v>
+        <v>27.45601311598354</v>
       </c>
       <c r="N11">
-        <v>19.42067266508785</v>
+        <v>12.2896763985045</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.706705846388811</v>
+        <v>9.696362791073799</v>
       </c>
       <c r="D12">
-        <v>7.01462944393506</v>
+        <v>4.727945113724469</v>
       </c>
       <c r="E12">
-        <v>8.635591454214916</v>
+        <v>11.07555166943747</v>
       </c>
       <c r="F12">
-        <v>41.34054563946083</v>
+        <v>52.28411883618828</v>
       </c>
       <c r="G12">
-        <v>3.660729929125624</v>
+        <v>1.978966387596805</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>21.46296039725792</v>
+        <v>34.19598339408325</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.4696457235692</v>
+        <v>27.86734693749531</v>
       </c>
       <c r="N12">
-        <v>19.4067632583013</v>
+        <v>12.23688416424403</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.69665790976322</v>
+        <v>9.66568975705863</v>
       </c>
       <c r="D13">
-        <v>7.015543528961217</v>
+        <v>4.726352149597724</v>
       </c>
       <c r="E13">
-        <v>8.629076092329582</v>
+        <v>11.03884066642237</v>
       </c>
       <c r="F13">
-        <v>41.30760429480942</v>
+        <v>52.12302879295137</v>
       </c>
       <c r="G13">
-        <v>3.660987881073293</v>
+        <v>1.97995572598104</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>21.43154568543418</v>
+        <v>34.0873294077898</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.44999143415435</v>
+        <v>27.77889798918062</v>
       </c>
       <c r="N13">
-        <v>19.40974541379369</v>
+        <v>12.24818003534667</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.663808219345851</v>
+        <v>9.565460525005053</v>
       </c>
       <c r="D14">
-        <v>7.018557769233107</v>
+        <v>4.721516051194571</v>
       </c>
       <c r="E14">
-        <v>8.607863125546986</v>
+        <v>10.91897498364233</v>
       </c>
       <c r="F14">
-        <v>41.20033030655968</v>
+        <v>51.59781383290824</v>
       </c>
       <c r="G14">
-        <v>3.661832661445105</v>
+        <v>1.983175395354084</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>21.32893531612044</v>
+        <v>33.73228597752902</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.38590642055254</v>
+        <v>27.48991772896325</v>
       </c>
       <c r="N14">
-        <v>19.41952225530056</v>
+        <v>12.28530027307797</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.64362520887569</v>
+        <v>9.503910242081259</v>
       </c>
       <c r="D15">
-        <v>7.020429559366187</v>
+        <v>4.718823344649714</v>
       </c>
       <c r="E15">
-        <v>8.594896935022948</v>
+        <v>10.84543656712759</v>
       </c>
       <c r="F15">
-        <v>41.13474321913709</v>
+        <v>51.27618024071497</v>
       </c>
       <c r="G15">
-        <v>3.662352839263013</v>
+        <v>1.985142616714184</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>21.26596303334438</v>
+        <v>33.51425637294967</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.34666321662752</v>
+        <v>27.31248722157368</v>
       </c>
       <c r="N15">
-        <v>19.42555031653546</v>
+        <v>12.30824898811057</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.527052208457688</v>
+        <v>9.148588544749039</v>
       </c>
       <c r="D16">
-        <v>7.031545006220353</v>
+        <v>4.707277433616628</v>
       </c>
       <c r="E16">
-        <v>8.521030298805336</v>
+        <v>10.42193707883509</v>
       </c>
       <c r="F16">
-        <v>40.76084482443781</v>
+        <v>49.54442781104479</v>
       </c>
       <c r="G16">
-        <v>3.665375662987359</v>
+        <v>1.996351885859196</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.90335783808854</v>
+        <v>32.25560102858839</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.12200616119904</v>
+        <v>26.2886427528399</v>
       </c>
       <c r="N16">
-        <v>19.46069871514459</v>
+        <v>12.44280191859171</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.454760883565259</v>
+        <v>8.928089356273231</v>
       </c>
       <c r="D17">
-        <v>7.038709355267242</v>
+        <v>4.703408543516028</v>
       </c>
       <c r="E17">
-        <v>8.476125223876917</v>
+        <v>10.15998936166255</v>
       </c>
       <c r="F17">
-        <v>40.53331772425025</v>
+        <v>48.49367208808871</v>
       </c>
       <c r="G17">
-        <v>3.667267582804296</v>
+        <v>2.003182684134842</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>20.67948487301068</v>
+        <v>31.47451721317282</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.98446355929693</v>
+        <v>25.65363886503137</v>
       </c>
       <c r="N17">
-        <v>19.48279918599932</v>
+        <v>12.52786459881372</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.41291017530197</v>
+        <v>8.800263880070313</v>
       </c>
       <c r="D18">
-        <v>7.042956354121069</v>
+        <v>4.702270340767988</v>
       </c>
       <c r="E18">
-        <v>8.450455258883679</v>
+        <v>10.00842942139527</v>
       </c>
       <c r="F18">
-        <v>40.40316993129355</v>
+        <v>47.89009638244319</v>
       </c>
       <c r="G18">
-        <v>3.668369604027085</v>
+        <v>2.007098998393753</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>20.55024512924079</v>
+        <v>31.02170838531513</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.90548344596778</v>
+        <v>25.28563801500075</v>
       </c>
       <c r="N18">
-        <v>19.49570817742915</v>
+        <v>12.57764533231023</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.398695251903488</v>
+        <v>8.756806030179451</v>
       </c>
       <c r="D19">
-        <v>7.044415935957569</v>
+        <v>4.702063262869109</v>
       </c>
       <c r="E19">
-        <v>8.441791753116735</v>
+        <v>9.956950751351735</v>
       </c>
       <c r="F19">
-        <v>40.35923160819848</v>
+        <v>47.68584433239468</v>
       </c>
       <c r="G19">
-        <v>3.668745111282096</v>
+        <v>2.008423208030789</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>20.50641027863199</v>
+        <v>30.86776186954451</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.87876735701346</v>
+        <v>25.16054469576241</v>
       </c>
       <c r="N19">
-        <v>19.50011280835022</v>
+        <v>12.59464097240994</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.462484780609214</v>
+        <v>8.951663800408664</v>
       </c>
       <c r="D20">
-        <v>7.037933616111941</v>
+        <v>4.703705854709007</v>
       </c>
       <c r="E20">
-        <v>8.48088924033487</v>
+        <v>10.18796444203602</v>
       </c>
       <c r="F20">
-        <v>40.55746479719154</v>
+        <v>48.60543816205237</v>
       </c>
       <c r="G20">
-        <v>3.667064753605466</v>
+        <v>2.002456926413702</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>20.70336674025631</v>
+        <v>31.55802665607206</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.99909232706831</v>
+        <v>25.72151729516831</v>
       </c>
       <c r="N20">
-        <v>19.48042611671392</v>
+        <v>12.51871956405637</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.673469887919447</v>
+        <v>9.594932507079555</v>
       </c>
       <c r="D21">
-        <v>7.017667099795053</v>
+        <v>4.722879745982593</v>
       </c>
       <c r="E21">
-        <v>8.614088228450962</v>
+        <v>10.95420616083718</v>
       </c>
       <c r="F21">
-        <v>41.23181422021906</v>
+        <v>51.75206370924312</v>
       </c>
       <c r="G21">
-        <v>3.661583961281129</v>
+        <v>1.98223075384918</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>21.35909983303815</v>
+        <v>33.83668479212466</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.40472766502171</v>
+        <v>27.5748846374657</v>
       </c>
       <c r="N21">
-        <v>19.41664233371596</v>
+        <v>12.27435258061274</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.808642144333948</v>
+        <v>10.00811505344085</v>
       </c>
       <c r="D22">
-        <v>7.005560410781427</v>
+        <v>4.747214355392823</v>
       </c>
       <c r="E22">
-        <v>8.702386967215521</v>
+        <v>11.44944736924764</v>
       </c>
       <c r="F22">
-        <v>41.67808111918557</v>
+        <v>53.93076248672786</v>
       </c>
       <c r="G22">
-        <v>3.658124071704139</v>
+        <v>1.968803347343439</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>21.78240024073411</v>
+        <v>35.30033316099567</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.67039079067134</v>
+        <v>28.76666782088481</v>
       </c>
       <c r="N22">
-        <v>19.37672127781429</v>
+        <v>12.12391207854651</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.736760875965902</v>
+        <v>9.788162680159154</v>
       </c>
       <c r="D23">
-        <v>7.011917089186394</v>
+        <v>4.733032966873144</v>
       </c>
       <c r="E23">
-        <v>8.655154263250592</v>
+        <v>11.18550324188952</v>
       </c>
       <c r="F23">
-        <v>41.43943522971099</v>
+        <v>52.76723354363484</v>
       </c>
       <c r="G23">
-        <v>3.659959559176659</v>
+        <v>1.9759941352328</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>21.557005932813</v>
+        <v>34.52117055124555</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.52857929221392</v>
+        <v>28.13209781541554</v>
       </c>
       <c r="N23">
-        <v>19.39786598608197</v>
+        <v>12.20326353213079</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.458993704808391</v>
+        <v>8.9410091056104</v>
       </c>
       <c r="D24">
-        <v>7.038283928879813</v>
+        <v>4.703568079587346</v>
       </c>
       <c r="E24">
-        <v>8.4787349701783</v>
+        <v>10.17531993184471</v>
       </c>
       <c r="F24">
-        <v>40.54654583835682</v>
+        <v>48.55490718488961</v>
       </c>
       <c r="G24">
-        <v>3.667156408035009</v>
+        <v>2.002785074134601</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>20.69257139388833</v>
+        <v>31.52028379000761</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.99247835856621</v>
+        <v>25.69083863180915</v>
       </c>
       <c r="N24">
-        <v>19.48149834869705</v>
+        <v>12.52285131901542</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.149262828184354</v>
+        <v>7.988345524973924</v>
       </c>
       <c r="D25">
-        <v>7.071543639829549</v>
+        <v>4.712518277245538</v>
       </c>
       <c r="E25">
-        <v>8.294580961918214</v>
+        <v>9.050577174006937</v>
       </c>
       <c r="F25">
-        <v>39.61143775489654</v>
+        <v>44.15852828775137</v>
       </c>
       <c r="G25">
-        <v>3.675449142938704</v>
+        <v>2.031237335025649</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>19.7427497506019</v>
+        <v>28.14537653445245</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.41958420199095</v>
+        <v>22.94998868438391</v>
       </c>
       <c r="N25">
-        <v>19.57925205876161</v>
+        <v>12.89979185467817</v>
       </c>
       <c r="O25">
         <v>0</v>
